--- a/Import/ExportLists/ExportMode-byElement.xlsx
+++ b/Import/ExportLists/ExportMode-byElement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Property 1</t>
   </si>
   <si>
-    <t>Property 2</t>
-  </si>
-  <si>
     <t>Element</t>
   </si>
   <si>
@@ -36,16 +33,13 @@
     <t>Property 3</t>
   </si>
   <si>
-    <t>Powers</t>
-  </si>
-  <si>
-    <t>VoltagesMagAng</t>
-  </si>
-  <si>
     <t>%stored</t>
   </si>
   <si>
     <t>Load.oh_264928_1_19</t>
+  </si>
+  <si>
+    <t>pf</t>
   </si>
 </sst>
 </file>
@@ -124,26 +118,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Courier New"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <b val="0"/>
@@ -253,12 +228,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04990430-CE08-441C-B2BD-2AFFEB72CF57}" name="Table1" displayName="Table1" ref="A2:D4" insertRowShift="1" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A2:D4" xr:uid="{E3360F6F-2B86-4F28-B72A-A82F0B4B3ACF}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3619F9E2-CABB-4374-90B5-6CD83340E6A7}" name="Element" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{B115F4B2-93D8-4543-9D4B-E76870DA17CA}" name="Property 1" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{98C1B7AF-1540-4B79-B062-8252507C9820}" name="Property 2" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04990430-CE08-441C-B2BD-2AFFEB72CF57}" name="Table1" displayName="Table1" ref="A2:C4" insertRowShift="1" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A2:C4" xr:uid="{E3360F6F-2B86-4F28-B72A-A82F0B4B3ACF}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3619F9E2-CABB-4374-90B5-6CD83340E6A7}" name="Element" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B115F4B2-93D8-4543-9D4B-E76870DA17CA}" name="Property 1" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{A2297099-26C2-4FD7-81F1-295378370960}" name="Property 3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -528,21 +502,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -551,46 +524,37 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
